--- a/Datasets/normalized_version.xlsx
+++ b/Datasets/normalized_version.xlsx
@@ -124,7 +124,7 @@
     <t>Total_final_organic_C_mM</t>
   </si>
   <si>
-    <t>C_conversion_ratio</t>
+    <t>C_ratio</t>
   </si>
   <si>
     <t>Huang 2016 SR</t>
@@ -6089,7 +6089,7 @@
         <v>-1</v>
       </c>
       <c r="W48">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X48">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>0.7213114754098362</v>
       </c>
       <c r="W49">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X49">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>0.7213114754098362</v>
       </c>
       <c r="W50">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X50">
         <v>1</v>
@@ -6437,7 +6437,7 @@
         <v>0.7131147540983607</v>
       </c>
       <c r="W51">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X51">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>0.7131147540983607</v>
       </c>
       <c r="W52">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X52">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         <v>0.7049180327868853</v>
       </c>
       <c r="W53">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X53">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>0.7213114754098362</v>
       </c>
       <c r="W54">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X54">
         <v>1</v>
@@ -6901,7 +6901,7 @@
         <v>0.7131147540983607</v>
       </c>
       <c r="W55">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X55">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>0.7131147540983607</v>
       </c>
       <c r="W56">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X56">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X57">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="W58">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X58">
         <v>1</v>
@@ -7365,7 +7365,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="W59">
-        <v>0.1107011070110701</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="X59">
         <v>1</v>
@@ -74826,7 +74826,7 @@
         <v>0.09974278365247213</v>
       </c>
       <c r="F641">
-        <v>0.5965130006341772</v>
+        <v>0.05990145860773697</v>
       </c>
       <c r="G641">
         <v>1</v>

--- a/Datasets/normalized_version.xlsx
+++ b/Datasets/normalized_version.xlsx
@@ -27614,7 +27614,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0.002341577637933558</v>
+        <v>0.05619786331040538</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -27846,7 +27846,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>0.004488023806039319</v>
+        <v>0.1077125713449437</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -27962,7 +27962,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0.009902922093760671</v>
+        <v>0.2376701302502561</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -28078,7 +28078,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0.02561100541489829</v>
+        <v>0.6146641299575589</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -28426,7 +28426,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0.002341577637933558</v>
+        <v>0.05619786331040538</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>0.004488023806039319</v>
+        <v>0.1077125713449437</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>0.009902922093760671</v>
+        <v>0.2376701302502561</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -28774,7 +28774,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>0.02561100541489829</v>
+        <v>0.6146641299575589</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -29122,7 +29122,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>0.002341577637933558</v>
+        <v>0.05619786331040538</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>0.004488023806039319</v>
+        <v>0.1077125713449437</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0.009902922093760671</v>
+        <v>0.2376701302502561</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -29470,7 +29470,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>0.02561100541489829</v>
+        <v>0.6146641299575589</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -29818,7 +29818,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0.002341577637933558</v>
+        <v>0.05619786331040538</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0.004488023806039319</v>
+        <v>0.1077125713449437</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -30050,7 +30050,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>0.009902922093760671</v>
+        <v>0.2376701302502561</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -30166,7 +30166,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.02561100541489829</v>
+        <v>0.6146641299575589</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -30398,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>0.002341577637933558</v>
+        <v>0.05619786331040538</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>0</v>
       </c>
       <c r="F260">
-        <v>0.004488023806039319</v>
+        <v>0.1077125713449437</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -30746,7 +30746,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0.009902922093760671</v>
+        <v>0.2376701302502561</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -30862,7 +30862,7 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>0.02561100541489829</v>
+        <v>0.6146641299575589</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -31094,7 +31094,7 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -31210,7 +31210,7 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -31326,7 +31326,7 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -31558,7 +31558,7 @@
         <v>0</v>
       </c>
       <c r="F268">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -31790,7 +31790,7 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -32138,7 +32138,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -32254,7 +32254,7 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -32602,7 +32602,7 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -32718,7 +32718,7 @@
         <v>0</v>
       </c>
       <c r="F278">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -32834,7 +32834,7 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -33182,7 +33182,7 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -33298,7 +33298,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -33530,7 +33530,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -33878,7 +33878,7 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -34110,7 +34110,7 @@
         <v>0</v>
       </c>
       <c r="F290">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -34226,7 +34226,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -34342,7 +34342,7 @@
         <v>0</v>
       </c>
       <c r="F292">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>9.756573491389824e-05</v>
+        <v>0.002341577637933558</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -34690,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0.0006341772769403386</v>
+        <v>0.01522025464656812</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -34806,7 +34806,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.001804966095907117</v>
+        <v>0.04331918630177082</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -34922,7 +34922,7 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>0.004731938143324064</v>
+        <v>0.1135665154397776</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="F298">
-        <v>0.01912288404312406</v>
+        <v>0.4589492170349773</v>
       </c>
       <c r="G298">
         <v>0</v>
